--- a/flow-seed.xlsx
+++ b/flow-seed.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Oikawa\Documents\programs\reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A696DF3-9D99-4D3F-A980-C44A14739CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202B0658-EF81-497F-899F-135A09304660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flow-seed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>T</t>
     <phoneticPr fontId="18"/>
@@ -40,12 +50,286 @@
   <si>
     <t>win-rate</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1…10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1…11</t>
+  </si>
+  <si>
+    <t>1…12</t>
+  </si>
+  <si>
+    <t>1…13</t>
+  </si>
+  <si>
+    <t>1…14</t>
+  </si>
+  <si>
+    <t>1…15</t>
+  </si>
+  <si>
+    <t>1…16</t>
+  </si>
+  <si>
+    <t>1…17</t>
+  </si>
+  <si>
+    <t>1…18</t>
+  </si>
+  <si>
+    <t>1…19</t>
+  </si>
+  <si>
+    <t>1…20</t>
+  </si>
+  <si>
+    <t>1…21</t>
+  </si>
+  <si>
+    <t>1…22</t>
+  </si>
+  <si>
+    <t>1…23</t>
+  </si>
+  <si>
+    <t>1…24</t>
+  </si>
+  <si>
+    <t>1…25</t>
+  </si>
+  <si>
+    <t>1…26</t>
+  </si>
+  <si>
+    <t>1…27</t>
+  </si>
+  <si>
+    <t>1…28</t>
+  </si>
+  <si>
+    <t>1…29</t>
+  </si>
+  <si>
+    <t>1…30</t>
+  </si>
+  <si>
+    <t>1…31</t>
+  </si>
+  <si>
+    <t>1…32</t>
+  </si>
+  <si>
+    <t>1…33</t>
+  </si>
+  <si>
+    <t>1…34</t>
+  </si>
+  <si>
+    <t>1…35</t>
+  </si>
+  <si>
+    <t>1…36</t>
+  </si>
+  <si>
+    <t>1…37</t>
+  </si>
+  <si>
+    <t>1…38</t>
+  </si>
+  <si>
+    <t>1…39</t>
+  </si>
+  <si>
+    <t>1…40</t>
+  </si>
+  <si>
+    <t>1…41</t>
+  </si>
+  <si>
+    <t>1…42</t>
+  </si>
+  <si>
+    <t>1…43</t>
+  </si>
+  <si>
+    <t>1…44</t>
+  </si>
+  <si>
+    <t>1…45</t>
+  </si>
+  <si>
+    <t>1…46</t>
+  </si>
+  <si>
+    <t>1…47</t>
+  </si>
+  <si>
+    <t>1…48</t>
+  </si>
+  <si>
+    <t>1…49</t>
+  </si>
+  <si>
+    <t>1…50</t>
+  </si>
+  <si>
+    <t>1…51</t>
+  </si>
+  <si>
+    <t>1…52</t>
+  </si>
+  <si>
+    <t>1…53</t>
+  </si>
+  <si>
+    <t>1…54</t>
+  </si>
+  <si>
+    <t>1…55</t>
+  </si>
+  <si>
+    <t>1…56</t>
+  </si>
+  <si>
+    <t>1…57</t>
+  </si>
+  <si>
+    <t>1…58</t>
+  </si>
+  <si>
+    <t>1…59</t>
+  </si>
+  <si>
+    <t>1…60</t>
+  </si>
+  <si>
+    <t>1…61</t>
+  </si>
+  <si>
+    <t>1…62</t>
+  </si>
+  <si>
+    <t>1…63</t>
+  </si>
+  <si>
+    <t>1…64</t>
+  </si>
+  <si>
+    <t>1…65</t>
+  </si>
+  <si>
+    <t>1…66</t>
+  </si>
+  <si>
+    <t>1…67</t>
+  </si>
+  <si>
+    <t>1…68</t>
+  </si>
+  <si>
+    <t>1…69</t>
+  </si>
+  <si>
+    <t>1…70</t>
+  </si>
+  <si>
+    <t>1…71</t>
+  </si>
+  <si>
+    <t>1…72</t>
+  </si>
+  <si>
+    <t>1…73</t>
+  </si>
+  <si>
+    <t>1…74</t>
+  </si>
+  <si>
+    <t>1…75</t>
+  </si>
+  <si>
+    <t>1…76</t>
+  </si>
+  <si>
+    <t>1…77</t>
+  </si>
+  <si>
+    <t>1…78</t>
+  </si>
+  <si>
+    <t>1…79</t>
+  </si>
+  <si>
+    <t>1…80</t>
+  </si>
+  <si>
+    <t>1…81</t>
+  </si>
+  <si>
+    <t>1…82</t>
+  </si>
+  <si>
+    <t>1…83</t>
+  </si>
+  <si>
+    <t>1…84</t>
+  </si>
+  <si>
+    <t>1…85</t>
+  </si>
+  <si>
+    <t>1…86</t>
+  </si>
+  <si>
+    <t>1…87</t>
+  </si>
+  <si>
+    <t>1…88</t>
+  </si>
+  <si>
+    <t>1…89</t>
+  </si>
+  <si>
+    <t>1…90</t>
+  </si>
+  <si>
+    <t>1…91</t>
+  </si>
+  <si>
+    <t>1…92</t>
+  </si>
+  <si>
+    <t>1…93</t>
+  </si>
+  <si>
+    <t>1…94</t>
+  </si>
+  <si>
+    <t>1…95</t>
+  </si>
+  <si>
+    <t>1…96</t>
+  </si>
+  <si>
+    <t>1…97</t>
+  </si>
+  <si>
+    <t>1…98</t>
+  </si>
+  <si>
+    <t>1…99</t>
+  </si>
+  <si>
+    <t>1…100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2119,16 +2403,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>214312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2452,16 +2736,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A101 E1:E101"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2478,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2496,7 +2780,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2514,7 +2798,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2532,7 +2816,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2550,7 +2834,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2568,7 +2852,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2586,7 +2870,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2604,7 +2888,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2622,7 +2906,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2640,7 +2924,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2657,8 +2941,15 @@
         <f t="shared" si="0"/>
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>SUM(D2:D11)/2000</f>
+        <v>0.82950000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2675,8 +2966,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>SUM(D3:D12)/2000</f>
+        <v>0.84399999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2693,8 +2991,15 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <f>SUM(D4:D13)/2000</f>
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2711,8 +3016,15 @@
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <f>SUM(D5:D14)/2000</f>
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2729,8 +3041,15 @@
         <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <f>SUM(D6:D15)/2000</f>
+        <v>0.87849999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2747,8 +3066,15 @@
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <f>SUM(D7:D16)/2000</f>
+        <v>0.88349999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2765,8 +3091,15 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17">
+        <f>SUM(D8:D17)/2000</f>
+        <v>0.88349999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2783,8 +3116,15 @@
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <f>SUM(D9:D18)/2000</f>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2801,8 +3141,15 @@
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f>SUM(D10:D19)/2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2819,8 +3166,15 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <f>SUM(D11:D20)/2000</f>
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2837,8 +3191,15 @@
         <f t="shared" si="0"/>
         <v>0.81499999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <f>SUM(D12:D21)/2000</f>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2855,8 +3216,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22">
+        <f>SUM(D13:D22)/2000</f>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2873,8 +3241,15 @@
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23">
+        <f>SUM(D14:D23)/2000</f>
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2891,8 +3266,15 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <f>SUM(D15:D24)/2000</f>
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2909,8 +3291,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <f>SUM(D16:D25)/2000</f>
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2927,8 +3316,15 @@
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26">
+        <f>SUM(D17:D26)/2000</f>
+        <v>0.86850000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2945,8 +3341,15 @@
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <f>SUM(D18:D27)/2000</f>
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2963,8 +3366,15 @@
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28">
+        <f>SUM(D19:D28)/2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2981,8 +3391,15 @@
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <f>SUM(D20:D29)/2000</f>
+        <v>0.87649999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2999,8 +3416,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f>SUM(D21:D30)/2000</f>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3017,8 +3441,15 @@
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <f>SUM(D22:D31)/2000</f>
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3035,8 +3466,15 @@
         <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <f>SUM(D23:D32)/2000</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3053,8 +3491,15 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <f>SUM(D24:D33)/2000</f>
+        <v>0.88449999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3071,8 +3516,15 @@
         <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <f>SUM(D25:D34)/2000</f>
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3089,8 +3541,15 @@
         <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <f>SUM(D26:D35)/2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3107,8 +3566,15 @@
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36">
+        <f>SUM(D27:D36)/2000</f>
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3125,8 +3591,15 @@
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37">
+        <f>SUM(D28:D37)/2000</f>
+        <v>0.87849999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3143,8 +3616,15 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38">
+        <f>SUM(D29:D38)/2000</f>
+        <v>0.87050000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3161,8 +3641,15 @@
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <f>SUM(D30:D39)/2000</f>
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3179,8 +3666,15 @@
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40">
+        <f>SUM(D31:D40)/2000</f>
+        <v>0.85950000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3197,8 +3691,15 @@
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41">
+        <f>SUM(D32:D41)/2000</f>
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3215,8 +3716,15 @@
         <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42">
+        <f>SUM(D33:D42)/2000</f>
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3233,8 +3741,15 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43">
+        <f>SUM(D34:D43)/2000</f>
+        <v>0.85350000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3251,8 +3766,15 @@
         <f t="shared" si="0"/>
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44">
+        <f>SUM(D35:D44)/2000</f>
+        <v>0.85250000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3269,8 +3791,15 @@
         <f t="shared" si="0"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45">
+        <f>SUM(D36:D45)/2000</f>
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3287,8 +3816,15 @@
         <f t="shared" si="0"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46">
+        <f>SUM(D37:D46)/2000</f>
+        <v>0.85850000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3305,8 +3841,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47">
+        <f>SUM(D38:D47)/2000</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3323,8 +3866,15 @@
         <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48">
+        <f>SUM(D39:D48)/2000</f>
+        <v>0.86350000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3341,8 +3891,15 @@
         <f t="shared" si="0"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49">
+        <f>SUM(D40:D49)/2000</f>
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3359,8 +3916,15 @@
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50">
+        <f>SUM(D41:D50)/2000</f>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3377,8 +3941,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <f>SUM(D42:D51)/2000</f>
+        <v>0.87450000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3395,8 +3966,15 @@
         <f t="shared" si="0"/>
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52">
+        <f>SUM(D43:D52)/2000</f>
+        <v>0.88449999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3413,8 +3991,15 @@
         <f t="shared" si="0"/>
         <v>0.92500000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53">
+        <f>SUM(D44:D53)/2000</f>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3431,8 +4016,15 @@
         <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
+      <c r="H54">
+        <f>SUM(D45:D54)/2000</f>
+        <v>0.89649999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3449,8 +4041,15 @@
         <f t="shared" si="0"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G55" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55">
+        <f>SUM(D46:D55)/2000</f>
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3467,8 +4066,15 @@
         <f t="shared" si="0"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56">
+        <f>SUM(D47:D56)/2000</f>
+        <v>0.89149999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3485,8 +4091,15 @@
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57">
+        <f>SUM(D48:D57)/2000</f>
+        <v>0.88949999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3503,8 +4116,15 @@
         <f t="shared" si="0"/>
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58">
+        <f>SUM(D49:D58)/2000</f>
+        <v>0.89649999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3521,8 +4141,15 @@
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59">
+        <f>SUM(D50:D59)/2000</f>
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3539,8 +4166,15 @@
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60">
+        <f>SUM(D51:D60)/2000</f>
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3557,8 +4191,15 @@
         <f t="shared" si="0"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61">
+        <f>SUM(D52:D61)/2000</f>
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3575,8 +4216,15 @@
         <f t="shared" si="0"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62">
+        <f>SUM(D53:D62)/2000</f>
+        <v>0.89449999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3593,8 +4241,15 @@
         <f t="shared" si="0"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <f>SUM(D54:D63)/2000</f>
+        <v>0.89049999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3611,8 +4266,15 @@
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G64" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64">
+        <f>SUM(D55:D64)/2000</f>
+        <v>0.88649999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3629,8 +4291,15 @@
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65">
+        <f>SUM(D56:D65)/2000</f>
+        <v>0.89149999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3647,8 +4316,15 @@
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66">
+        <f>SUM(D57:D66)/2000</f>
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3665,8 +4341,15 @@
         <f t="shared" ref="E67:E101" si="1">D67/200</f>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67">
+        <f>SUM(D58:D67)/2000</f>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3683,8 +4366,15 @@
         <f t="shared" si="1"/>
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68">
+        <f>SUM(D59:D68)/2000</f>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3701,8 +4391,15 @@
         <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <f>SUM(D60:D69)/2000</f>
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3719,8 +4416,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G70" t="s">
+        <v>25</v>
+      </c>
+      <c r="H70">
+        <f>SUM(D61:D70)/2000</f>
+        <v>0.88349999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3737,8 +4441,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <f>SUM(D62:D71)/2000</f>
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3755,8 +4466,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <f>SUM(D63:D72)/2000</f>
+        <v>0.88549999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3773,8 +4491,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73">
+        <f>SUM(D64:D73)/2000</f>
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3791,8 +4516,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74">
+        <f>SUM(D65:D74)/2000</f>
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3809,8 +4541,15 @@
         <f t="shared" si="1"/>
         <v>0.89</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75">
+        <f>SUM(D66:D75)/2000</f>
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3827,8 +4566,15 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76">
+        <f>SUM(D67:D76)/2000</f>
+        <v>0.88849999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3845,8 +4591,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77">
+        <f>SUM(D68:D77)/2000</f>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3863,8 +4616,15 @@
         <f t="shared" si="1"/>
         <v>0.83</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78">
+        <f>SUM(D69:D78)/2000</f>
+        <v>0.87949999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3881,8 +4641,15 @@
         <f t="shared" si="1"/>
         <v>0.91</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79">
+        <f>SUM(D70:D79)/2000</f>
+        <v>0.87949999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3899,8 +4666,15 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80">
+        <f>SUM(D71:D80)/2000</f>
+        <v>0.88049999999999995</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3917,8 +4691,15 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G81" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81">
+        <f>SUM(D72:D81)/2000</f>
+        <v>0.87949999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3935,8 +4716,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G82" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82">
+        <f>SUM(D73:D82)/2000</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3953,8 +4741,15 @@
         <f t="shared" si="1"/>
         <v>0.90500000000000003</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G83" t="s">
+        <v>69</v>
+      </c>
+      <c r="H83">
+        <f>SUM(D74:D83)/2000</f>
+        <v>0.88349999999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3971,8 +4766,15 @@
         <f t="shared" si="1"/>
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G84" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84">
+        <f>SUM(D75:D84)/2000</f>
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3989,8 +4791,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85">
+        <f>SUM(D76:D85)/2000</f>
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4007,8 +4816,15 @@
         <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G86" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86">
+        <f>SUM(D77:D86)/2000</f>
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4025,8 +4841,15 @@
         <f t="shared" si="1"/>
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G87" t="s">
+        <v>62</v>
+      </c>
+      <c r="H87">
+        <f>SUM(D78:D87)/2000</f>
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4043,8 +4866,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G88" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88">
+        <f>SUM(D79:D88)/2000</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4061,8 +4891,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G89" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89">
+        <f>SUM(D80:D89)/2000</f>
+        <v>0.87849999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4079,8 +4916,15 @@
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G90" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90">
+        <f>SUM(D81:D90)/2000</f>
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4097,8 +4941,15 @@
         <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91">
+        <f>SUM(D82:D91)/2000</f>
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4115,8 +4966,15 @@
         <f t="shared" si="1"/>
         <v>0.88500000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G92" t="s">
+        <v>71</v>
+      </c>
+      <c r="H92">
+        <f>SUM(D83:D92)/2000</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4133,8 +4991,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G93" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93">
+        <f>SUM(D84:D93)/2000</f>
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4151,8 +5016,15 @@
         <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G94" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <f>SUM(D85:D94)/2000</f>
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4169,8 +5041,15 @@
         <f t="shared" si="1"/>
         <v>0.86</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G95" t="s">
+        <v>59</v>
+      </c>
+      <c r="H95">
+        <f>SUM(D86:D95)/2000</f>
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4187,8 +5066,15 @@
         <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H96">
+        <f>SUM(D87:D96)/2000</f>
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4205,8 +5091,15 @@
         <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G97" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97">
+        <f>SUM(D88:D97)/2000</f>
+        <v>0.86650000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4223,8 +5116,15 @@
         <f t="shared" si="1"/>
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G98" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98">
+        <f>SUM(D89:D98)/2000</f>
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4241,8 +5141,15 @@
         <f t="shared" si="1"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G99" t="s">
+        <v>53</v>
+      </c>
+      <c r="H99">
+        <f>SUM(D90:D99)/2000</f>
+        <v>0.87450000000000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4259,8 +5166,15 @@
         <f t="shared" si="1"/>
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G100" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100">
+        <f>SUM(D91:D100)/2000</f>
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4277,8 +5191,18 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101">
+        <f>SUM(D92:D101)/2000</f>
+        <v>0.879</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G11:H101">
+    <sortCondition ref="H11"/>
+  </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flow-seed.xlsx
+++ b/flow-seed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H.Oikawa\Documents\programs\reversi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oidoz\Documents\programs\reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202B0658-EF81-497F-899F-135A09304660}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143F15D-B047-49A2-AADC-4C563E4D5887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flow-seed" sheetId="1" r:id="rId1"/>
@@ -993,6 +993,43 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>勝率</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>シード値固定</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1698,6 +1735,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>温度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>T</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1736,7 +1833,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="413126991"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1746,6 +1843,7 @@
         <c:axId val="413126991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1763,6 +1861,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>勝率 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2403,16 +2561,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
+      <xdr:colOff>522287</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:rowOff>227012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2739,13 +2897,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H101"/>
+    <sheetView tabSelected="1" topLeftCell="D77" workbookViewId="0">
+      <selection activeCell="S85" sqref="S85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2780,7 +2938,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2798,7 +2956,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2816,7 +2974,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2834,7 +2992,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2852,7 +3010,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2870,7 +3028,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2888,7 +3046,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2906,7 +3064,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2924,7 +3082,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2945,11 +3103,11 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <f>SUM(D2:D11)/2000</f>
+        <f t="shared" ref="H11:H42" si="1">SUM(D2:D11)/2000</f>
         <v>0.82950000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2970,11 +3128,11 @@
         <v>6</v>
       </c>
       <c r="H12">
-        <f>SUM(D3:D12)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2995,11 +3153,11 @@
         <v>38</v>
       </c>
       <c r="H13">
-        <f>SUM(D4:D13)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3020,11 +3178,11 @@
         <v>37</v>
       </c>
       <c r="H14">
-        <f>SUM(D5:D14)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3045,11 +3203,11 @@
         <v>36</v>
       </c>
       <c r="H15">
-        <f>SUM(D6:D15)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.87849999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3070,11 +3228,11 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <f>SUM(D7:D16)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88349999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3095,11 +3253,11 @@
         <v>39</v>
       </c>
       <c r="H17">
-        <f>SUM(D8:D17)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88349999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3120,11 +3278,11 @@
         <v>35</v>
       </c>
       <c r="H18">
-        <f>SUM(D9:D18)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3145,11 +3303,11 @@
         <v>40</v>
       </c>
       <c r="H19">
-        <f>SUM(D10:D19)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3170,11 +3328,11 @@
         <v>34</v>
       </c>
       <c r="H20">
-        <f>SUM(D11:D20)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3195,11 +3353,11 @@
         <v>41</v>
       </c>
       <c r="H21">
-        <f>SUM(D12:D21)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3220,11 +3378,11 @@
         <v>42</v>
       </c>
       <c r="H22">
-        <f>SUM(D13:D22)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3245,11 +3403,11 @@
         <v>43</v>
       </c>
       <c r="H23">
-        <f>SUM(D14:D23)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.871</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3270,11 +3428,11 @@
         <v>18</v>
       </c>
       <c r="H24">
-        <f>SUM(D15:D24)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3295,11 +3453,11 @@
         <v>90</v>
       </c>
       <c r="H25">
-        <f>SUM(D16:D25)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3320,11 +3478,11 @@
         <v>91</v>
       </c>
       <c r="H26">
-        <f>SUM(D17:D26)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86850000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3345,11 +3503,11 @@
         <v>33</v>
       </c>
       <c r="H27">
-        <f>SUM(D18:D27)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.871</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3370,11 +3528,11 @@
         <v>89</v>
       </c>
       <c r="H28">
-        <f>SUM(D19:D28)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3395,11 +3553,11 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <f>SUM(D20:D29)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.87649999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3420,11 +3578,11 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <f>SUM(D21:D30)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.876</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3445,11 +3603,11 @@
         <v>15</v>
       </c>
       <c r="H31">
-        <f>SUM(D22:D31)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3470,11 +3628,11 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <f>SUM(D23:D32)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3495,11 +3653,11 @@
         <v>19</v>
       </c>
       <c r="H33">
-        <f>SUM(D24:D33)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3520,11 +3678,11 @@
         <v>32</v>
       </c>
       <c r="H34">
-        <f>SUM(D25:D34)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3545,11 +3703,11 @@
         <v>17</v>
       </c>
       <c r="H35">
-        <f>SUM(D26:D35)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3570,11 +3728,11 @@
         <v>21</v>
       </c>
       <c r="H36">
-        <f>SUM(D27:D36)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.878</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3595,11 +3753,11 @@
         <v>88</v>
       </c>
       <c r="H37">
-        <f>SUM(D28:D37)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.87849999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3620,11 +3778,11 @@
         <v>92</v>
       </c>
       <c r="H38">
-        <f>SUM(D29:D38)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.87050000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3645,11 +3803,11 @@
         <v>44</v>
       </c>
       <c r="H39">
-        <f>SUM(D30:D39)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3670,11 +3828,11 @@
         <v>87</v>
       </c>
       <c r="H40">
-        <f>SUM(D31:D40)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.85950000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3695,11 +3853,11 @@
         <v>85</v>
       </c>
       <c r="H41">
-        <f>SUM(D32:D41)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3720,11 +3878,11 @@
         <v>45</v>
       </c>
       <c r="H42">
-        <f>SUM(D33:D42)/2000</f>
+        <f t="shared" si="1"/>
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3745,11 +3903,11 @@
         <v>93</v>
       </c>
       <c r="H43">
-        <f>SUM(D34:D43)/2000</f>
+        <f t="shared" ref="H43:H74" si="2">SUM(D34:D43)/2000</f>
         <v>0.85350000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3770,11 +3928,11 @@
         <v>22</v>
       </c>
       <c r="H44">
-        <f>SUM(D35:D44)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.85250000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3795,11 +3953,11 @@
         <v>86</v>
       </c>
       <c r="H45">
-        <f>SUM(D36:D45)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3820,11 +3978,11 @@
         <v>24</v>
       </c>
       <c r="H46">
-        <f>SUM(D37:D46)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.85850000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3845,11 +4003,11 @@
         <v>81</v>
       </c>
       <c r="H47">
-        <f>SUM(D38:D47)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3870,11 +4028,11 @@
         <v>23</v>
       </c>
       <c r="H48">
-        <f>SUM(D39:D48)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.86350000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3895,11 +4053,11 @@
         <v>84</v>
       </c>
       <c r="H49">
-        <f>SUM(D40:D49)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3920,11 +4078,11 @@
         <v>94</v>
       </c>
       <c r="H50">
-        <f>SUM(D41:D50)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.872</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3945,11 +4103,11 @@
         <v>30</v>
       </c>
       <c r="H51">
-        <f>SUM(D42:D51)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3970,11 +4128,11 @@
         <v>9</v>
       </c>
       <c r="H52">
-        <f>SUM(D43:D52)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3995,11 +4153,11 @@
         <v>31</v>
       </c>
       <c r="H53">
-        <f>SUM(D44:D53)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4020,11 +4178,11 @@
         <v>83</v>
       </c>
       <c r="H54">
-        <f>SUM(D45:D54)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.89649999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4045,11 +4203,11 @@
         <v>95</v>
       </c>
       <c r="H55">
-        <f>SUM(D46:D55)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4070,11 +4228,11 @@
         <v>72</v>
       </c>
       <c r="H56">
-        <f>SUM(D47:D56)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.89149999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4095,11 +4253,11 @@
         <v>73</v>
       </c>
       <c r="H57">
-        <f>SUM(D48:D57)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88949999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4120,11 +4278,11 @@
         <v>75</v>
       </c>
       <c r="H58">
-        <f>SUM(D49:D58)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.89649999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4145,11 +4303,11 @@
         <v>26</v>
       </c>
       <c r="H59">
-        <f>SUM(D50:D59)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4170,11 +4328,11 @@
         <v>76</v>
       </c>
       <c r="H60">
-        <f>SUM(D51:D60)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4195,11 +4353,11 @@
         <v>82</v>
       </c>
       <c r="H61">
-        <f>SUM(D52:D61)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4220,11 +4378,11 @@
         <v>13</v>
       </c>
       <c r="H62">
-        <f>SUM(D53:D62)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.89449999999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4245,11 +4403,11 @@
         <v>29</v>
       </c>
       <c r="H63">
-        <f>SUM(D54:D63)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.89049999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4270,11 +4428,11 @@
         <v>74</v>
       </c>
       <c r="H64">
-        <f>SUM(D55:D64)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88649999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4295,11 +4453,11 @@
         <v>14</v>
       </c>
       <c r="H65">
-        <f>SUM(D56:D65)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.89149999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4320,11 +4478,11 @@
         <v>78</v>
       </c>
       <c r="H66">
-        <f>SUM(D57:D66)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4338,18 +4496,18 @@
         <v>177</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="1">D67/200</f>
+        <f t="shared" ref="E67:E101" si="3">D67/200</f>
         <v>0.88500000000000001</v>
       </c>
       <c r="G67" t="s">
         <v>80</v>
       </c>
       <c r="H67">
-        <f>SUM(D58:D67)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4363,18 +4521,18 @@
         <v>187</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93500000000000005</v>
       </c>
       <c r="G68" t="s">
         <v>79</v>
       </c>
       <c r="H68">
-        <f>SUM(D59:D68)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4388,18 +4546,18 @@
         <v>182</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
       </c>
       <c r="H69">
-        <f>SUM(D60:D69)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4413,18 +4571,18 @@
         <v>175</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
       <c r="G70" t="s">
         <v>25</v>
       </c>
       <c r="H70">
-        <f>SUM(D61:D70)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88349999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4438,18 +4596,18 @@
         <v>179</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
       </c>
       <c r="H71">
-        <f>SUM(D62:D71)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4463,18 +4621,18 @@
         <v>174</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
       <c r="H72">
-        <f>SUM(D63:D72)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4488,18 +4646,18 @@
         <v>174</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
       <c r="G73" t="s">
         <v>64</v>
       </c>
       <c r="H73">
-        <f>SUM(D64:D73)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4513,18 +4671,18 @@
         <v>178</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89</v>
       </c>
       <c r="G74" t="s">
         <v>77</v>
       </c>
       <c r="H74">
-        <f>SUM(D65:D74)/2000</f>
+        <f t="shared" si="2"/>
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4538,18 +4696,18 @@
         <v>178</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89</v>
       </c>
       <c r="G75" t="s">
         <v>28</v>
       </c>
       <c r="H75">
-        <f>SUM(D66:D75)/2000</f>
+        <f t="shared" ref="H75:H106" si="4">SUM(D66:D75)/2000</f>
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4563,18 +4721,18 @@
         <v>173</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="G76" t="s">
         <v>65</v>
       </c>
       <c r="H76">
-        <f>SUM(D67:D76)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88849999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4588,18 +4746,18 @@
         <v>180</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="G77" t="s">
         <v>67</v>
       </c>
       <c r="H77">
-        <f>SUM(D68:D77)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.89</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4613,18 +4771,18 @@
         <v>166</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.83</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
       <c r="H78">
-        <f>SUM(D69:D78)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.87949999999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4638,18 +4796,18 @@
         <v>182</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
       </c>
       <c r="H79">
-        <f>SUM(D70:D79)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.87949999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4663,18 +4821,18 @@
         <v>177</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="G80" t="s">
         <v>68</v>
       </c>
       <c r="H80">
-        <f>SUM(D71:D80)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4688,18 +4846,18 @@
         <v>177</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="G81" t="s">
         <v>66</v>
       </c>
       <c r="H81">
-        <f>SUM(D72:D81)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.87949999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4713,18 +4871,18 @@
         <v>175</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
       <c r="G82" t="s">
         <v>60</v>
       </c>
       <c r="H82">
-        <f>SUM(D73:D82)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4738,18 +4896,18 @@
         <v>181</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="G83" t="s">
         <v>69</v>
       </c>
       <c r="H83">
-        <f>SUM(D74:D83)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88349999999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4763,18 +4921,18 @@
         <v>173</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86499999999999999</v>
       </c>
       <c r="G84" t="s">
         <v>58</v>
       </c>
       <c r="H84">
-        <f>SUM(D75:D84)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4788,18 +4946,18 @@
         <v>180</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="G85" t="s">
         <v>47</v>
       </c>
       <c r="H85">
-        <f>SUM(D76:D85)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4813,18 +4971,18 @@
         <v>172</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
       <c r="G86" t="s">
         <v>61</v>
       </c>
       <c r="H86">
-        <f>SUM(D77:D86)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88149999999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4838,18 +4996,18 @@
         <v>169</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84499999999999997</v>
       </c>
       <c r="G87" t="s">
         <v>62</v>
       </c>
       <c r="H87">
-        <f>SUM(D78:D87)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.876</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4863,18 +5021,18 @@
         <v>174</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
       <c r="G88" t="s">
         <v>63</v>
       </c>
       <c r="H88">
-        <f>SUM(D79:D88)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4888,18 +5046,18 @@
         <v>179</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G89" t="s">
         <v>70</v>
       </c>
       <c r="H89">
-        <f>SUM(D80:D89)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.87849999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4913,18 +5071,18 @@
         <v>174</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87</v>
       </c>
       <c r="G90" t="s">
         <v>49</v>
       </c>
       <c r="H90">
-        <f>SUM(D81:D90)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.877</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4938,18 +5096,18 @@
         <v>171</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="G91" t="s">
         <v>51</v>
       </c>
       <c r="H91">
-        <f>SUM(D82:D91)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.874</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4963,18 +5121,18 @@
         <v>177</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="G92" t="s">
         <v>71</v>
       </c>
       <c r="H92">
-        <f>SUM(D83:D92)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4988,18 +5146,18 @@
         <v>175</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
       <c r="G93" t="s">
         <v>57</v>
       </c>
       <c r="H93">
-        <f>SUM(D84:D93)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.872</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5013,18 +5171,18 @@
         <v>171</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="G94" t="s">
         <v>50</v>
       </c>
       <c r="H94">
-        <f>SUM(D85:D94)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.871</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5038,18 +5196,18 @@
         <v>172</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.86</v>
       </c>
       <c r="G95" t="s">
         <v>59</v>
       </c>
       <c r="H95">
-        <f>SUM(D86:D95)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5063,18 +5221,18 @@
         <v>170</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="G96" t="s">
         <v>56</v>
       </c>
       <c r="H96">
-        <f>SUM(D87:D96)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5088,18 +5246,18 @@
         <v>170</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="G97" t="s">
         <v>48</v>
       </c>
       <c r="H97">
-        <f>SUM(D88:D97)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.86650000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5113,18 +5271,18 @@
         <v>183</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91500000000000004</v>
       </c>
       <c r="G98" t="s">
         <v>52</v>
       </c>
       <c r="H98">
-        <f>SUM(D89:D98)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.871</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5138,18 +5296,18 @@
         <v>186</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93</v>
       </c>
       <c r="G99" t="s">
         <v>53</v>
       </c>
       <c r="H99">
-        <f>SUM(D90:D99)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.87450000000000006</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5163,18 +5321,18 @@
         <v>179</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="G100" t="s">
         <v>55</v>
       </c>
       <c r="H100">
-        <f>SUM(D91:D100)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.877</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5188,14 +5346,14 @@
         <v>175</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
       <c r="G101" t="s">
         <v>54</v>
       </c>
       <c r="H101">
-        <f>SUM(D92:D101)/2000</f>
+        <f t="shared" si="4"/>
         <v>0.879</v>
       </c>
     </row>
